--- a/石田関係/クモ仕様書(β用11月27日).xlsx
+++ b/石田関係/クモ仕様書(β用11月27日).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="2" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="5" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="243">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -6859,6 +6859,30 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一番最初
+一番近くの木に近づいてジャンプ
+</t>
+    <rPh sb="0" eb="2">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7162,7 +7186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7240,6 +7264,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7279,8 +7305,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -20162,202 +20189,6 @@
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>5076</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>14983</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 45"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6177276" y="3305175"/>
-          <a:ext cx="966474" cy="367408"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>立体マップ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5124450" y="3381375"/>
-          <a:ext cx="971551" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="47625">
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -20448,13 +20279,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>309252</xdr:colOff>
+      <xdr:colOff>298046</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>82830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>433552</xdr:colOff>
+      <xdr:colOff>422346</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>164224</xdr:rowOff>
     </xdr:to>
@@ -20465,12 +20296,171 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1675597" y="1593692"/>
-          <a:ext cx="807472" cy="790842"/>
+          <a:off x="1665164" y="1584418"/>
+          <a:ext cx="807858" cy="787365"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>383902</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>143949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>348156</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>98535</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="楕円 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1751020" y="1645537"/>
+          <a:ext cx="647812" cy="660557"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -20650,25 +20640,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>282465</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>4885</xdr:rowOff>
+      <xdr:colOff>394139</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>169629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>466397</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>4885</xdr:rowOff>
+      <xdr:colOff>343604</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>98535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+        <xdr:cNvPr id="12" name="直線コネクタ 11"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1648810" y="1988713"/>
-          <a:ext cx="867104" cy="0"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1760484" y="1680491"/>
+          <a:ext cx="632637" cy="638354"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -20699,25 +20689,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>394139</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>169629</xdr:rowOff>
+      <xdr:colOff>282465</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>343604</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>98535</xdr:rowOff>
+      <xdr:colOff>466397</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4885</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線コネクタ 11"/>
+        <xdr:cNvPr id="11" name="直線コネクタ 10"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1760484" y="1680491"/>
-          <a:ext cx="632637" cy="638354"/>
+        <a:xfrm flipH="1">
+          <a:off x="1648810" y="1988713"/>
+          <a:ext cx="867104" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -20796,182 +20786,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>383902</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>143949</xdr:rowOff>
+      <xdr:rowOff>26535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>348156</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>98535</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>550574</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>144826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="楕円 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1750247" y="1654811"/>
-          <a:ext cx="647426" cy="664034"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>403507</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>16316</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>499239</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>35794</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 10"/>
+        <xdr:cNvPr id="18" name="テキスト ボックス 84"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1769852" y="1763661"/>
-          <a:ext cx="778904" cy="492443"/>
+          <a:off x="6362701" y="1541010"/>
+          <a:ext cx="1045873" cy="594541"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21079,356 +20913,10 @@
         </a:lstStyle>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>100</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>659664</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>204694</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>494516</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>591</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4088664" y="3147919"/>
-          <a:ext cx="520652" cy="507471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>10542</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>33130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>550536</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>52707</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="角丸四角形 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6182742" y="1547605"/>
-          <a:ext cx="1225794" cy="495827"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>496957</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>26535</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1485</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>144826</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキスト ボックス 84"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5983357" y="1541010"/>
-          <a:ext cx="1561928" cy="594541"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -21436,12 +20924,18 @@
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>秒</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
             <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -21955,6 +21449,369 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743265" y="5143500"/>
+          <a:ext cx="1524000" cy="324971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>図は今はない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>431894</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>201571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>287798</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="楕円 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1803778" y="1715620"/>
+          <a:ext cx="541846" cy="558479"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390527</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>64635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>218925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 84"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762127" y="1817235"/>
+          <a:ext cx="714374" cy="392415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>100%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22363,10 +22220,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -22459,10 +22316,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -22565,10 +22422,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="39"/>
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
@@ -22643,10 +22500,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -22670,140 +22527,140 @@
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="40"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="42"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="43"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="43"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="45"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="43"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="45"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="43"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="45"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="43"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="45"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="43"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="45"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="46"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22821,7 +22678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -22831,18 +22688,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="39"/>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="48"/>
+    <row r="7" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>232</v>
       </c>
@@ -22924,11 +22781,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -23009,8 +22866,8 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -23019,10 +22876,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -23143,10 +23000,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
@@ -23306,10 +23163,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -23472,6 +23329,11 @@
       </c>
       <c r="D19" s="25" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="56.25" x14ac:dyDescent="0.45">
+      <c r="B23" s="50" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -23498,10 +23360,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="39"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
@@ -23547,10 +23409,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -23582,10 +23444,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -23672,10 +23534,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -23852,10 +23714,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -24078,10 +23940,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
